--- a/data/excel_doc/wkgj_id_lims.xlsx
+++ b/data/excel_doc/wkgj_id_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GSD230925001B001</t>
+          <t>GSD230926056B001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>239Q0001</t>
+          <t>239R0056</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -461,19 +461,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HSTQ2023092500001</t>
+          <t>HSTQ2023092600003</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GSD230925001B002</t>
+          <t>GSD230926056B002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>239Q0001</t>
+          <t>239R0056</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -483,19 +483,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>HSTQ2023092500001</t>
+          <t>HSTQ2023092600003</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GSD230925002B001</t>
+          <t>GSD230926057B001</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>239Q0002</t>
+          <t>239R0057</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -505,19 +505,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>HSTQ2023092500001</t>
+          <t>HSTQ2023092600003</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GSD230925003B001</t>
+          <t>GSD230926058B001</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>239Q0003</t>
+          <t>239R0058</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -527,19 +527,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>HSTQ2023092500001</t>
+          <t>HSTQ2023092600003</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GSD230925004B001</t>
+          <t>GSD230926059B001</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>239Q0004</t>
+          <t>239R0059</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -549,19 +549,19 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>HSTQ2023092500001</t>
+          <t>HSTQ2023092600003</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GSD230925005B001</t>
+          <t>GSD230926060B001</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>239Q0005</t>
+          <t>239R0060</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -571,19 +571,19 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>HSTQ2023092500001</t>
+          <t>HSTQ2023092600003</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GSD230925006B001</t>
+          <t>GSD230926061B001</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>239Q0006</t>
+          <t>239R0061</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -593,19 +593,19 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>HSTQ2023092500001</t>
+          <t>HSTQ2023092600003</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>GSD230925007B001</t>
+          <t>GSD230926062B001</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>239Q0007</t>
+          <t>239R0062</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -615,19 +615,19 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>HSTQ2023092500001</t>
+          <t>HSTQ2023092600003</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GSD230925008B001</t>
+          <t>GSD230926063B001</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>239Q0008</t>
+          <t>239R0063</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>HSTQ2023092500001</t>
+          <t>HSTQ2023092600003</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>GSD230925009B001</t>
+          <t>GSD230926064B001</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>239Q0009</t>
+          <t>239R0064</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -659,19 +659,19 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>HSTQ2023092500001</t>
+          <t>HSTQ2023092600003</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>GSD230925010B001</t>
+          <t>GSD230926065B001</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>239Q0010</t>
+          <t>239R0065</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -681,19 +681,19 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>HSTQ2023092500001</t>
+          <t>HSTQ2023092600003</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>GSD230925011B001</t>
+          <t>GSD230926066B001</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>239Q0011</t>
+          <t>239R0066</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -703,19 +703,19 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>HSTQ2023092500001</t>
+          <t>HSTQ2023092600003</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>GSD230925012B001</t>
+          <t>GSD230926067B001</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>239Q0012</t>
+          <t>239R0067</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -725,19 +725,19 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>HSTQ2023092500001</t>
+          <t>HSTQ2023092600003</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>GSD230925013B001</t>
+          <t>GSD230926068B001</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>239Q0013</t>
+          <t>239R0068</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -747,19 +747,19 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>HSTQ2023092500001</t>
+          <t>HSTQ2023092600003</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>GSD230925014B001</t>
+          <t>GSD230926069B001</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>239Q0014</t>
+          <t>239R0069</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -769,19 +769,19 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>HSTQ2023092500001</t>
+          <t>HSTQ2023092600003</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>GSD230925015B001</t>
+          <t>GSD230926070B001</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>239Q0015</t>
+          <t>239R0070</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -791,19 +791,19 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>HSTQ2023092500001</t>
+          <t>HSTQ2023092600003</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>GSD230925016B001</t>
+          <t>GSD230926071B001</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>239Q0016</t>
+          <t>239R0071</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -813,19 +813,19 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>HSTQ2023092500001</t>
+          <t>HSTQ2023092600003</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>GSD230925017B001</t>
+          <t>GSD230926072B001</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>239Q0017</t>
+          <t>239R0072</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -835,19 +835,19 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>HSTQ2023092500001</t>
+          <t>HSTQ2023092600003</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>GSD230925018B001</t>
+          <t>GSD230926073B001</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>239Q0018</t>
+          <t>239R0073</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -857,19 +857,19 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>HSTQ2023092500001</t>
+          <t>HSTQ2023092600003</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>GSD230925019B001</t>
+          <t>GSD230926074B001</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>239Q0019</t>
+          <t>239R0074</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -879,19 +879,19 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>HSTQ2023092500001</t>
+          <t>HSTQ2023092600003</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>GSD230925020B001</t>
+          <t>GSD230926075B001</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>239Q0020</t>
+          <t>239R0075</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -901,19 +901,19 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>HSTQ2023092500001</t>
+          <t>HSTQ2023092600003</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>GSD230925036B001</t>
+          <t>GSD230926091B001</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>239Q0036</t>
+          <t>239R0091</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -923,19 +923,19 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>HSTQ2023092500001</t>
+          <t>HSTQ2023092600003</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>GSD230925031P001</t>
+          <t>GSD230926086P001</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>239Q0031</t>
+          <t>239R0086</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -945,19 +945,19 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>MPCRD2023092500117</t>
+          <t>MPCRD2023092600119</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>GSD230925032P001</t>
+          <t>GSD230926087P001</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>239Q0032</t>
+          <t>239R0087</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -967,19 +967,19 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>MPCRD2023092500117</t>
+          <t>MPCRD2023092600119</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>GSD230925033P001</t>
+          <t>GSD230926088P001</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>239Q0033</t>
+          <t>239R0088</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>MPCRD2023092500117</t>
+          <t>MPCRD2023092600119</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>GSD230925034P001</t>
+          <t>GSD230926089P001</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>239Q0034</t>
+          <t>239R0089</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1011,19 +1011,19 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>MPCRD2023092500117</t>
+          <t>MPCRD2023092600119</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>GSD230925035P001</t>
+          <t>GSD230926090P001</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>239Q0035</t>
+          <t>239R0090</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>MPCRD2023092500117</t>
+          <t>MPCRD2023092600119</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/wkgj_id_lims.xlsx
+++ b/data/excel_doc/wkgj_id_lims.xlsx
@@ -1,98 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\工作文件夹\自动化文档\正式脚本\迪飞LIMS脚本\DFei_LIMS\data\excel_doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9782DA-09AA-498B-961B-AA5A017CAED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
-  <si>
-    <t>lims号</t>
-  </si>
-  <si>
-    <t>实验室号</t>
-  </si>
-  <si>
-    <t>当前节点</t>
-  </si>
-  <si>
-    <t>任务单号</t>
-  </si>
-  <si>
-    <t>24190032</t>
-  </si>
-  <si>
-    <t>文库构建</t>
-  </si>
-  <si>
-    <t>MPCRD2024010900001</t>
-  </si>
-  <si>
-    <t>GSD240109033P001</t>
-  </si>
-  <si>
-    <t>24190033</t>
-  </si>
-  <si>
-    <t>MPCRD2024010900002</t>
-  </si>
-  <si>
-    <t>GSD240109034P001</t>
-  </si>
-  <si>
-    <t>24190034</t>
-  </si>
-  <si>
-    <t>GSD240109035P001</t>
-  </si>
-  <si>
-    <t>24190035</t>
-  </si>
-  <si>
-    <t>GSD240109036P001</t>
-  </si>
-  <si>
-    <t>24190036</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -111,21 +47,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -413,108 +408,636 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="21.375" customWidth="1"/>
-    <col min="5" max="5" width="33.375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>lims号</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>实验室号</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>当前节点</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>任务单号</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GSD240116005B001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>241F0008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>文库构建</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>HSTQD2024011600003</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>GSD240116005B002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>241F0008</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>文库构建</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>HSTQD2024011600003</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>GSD240116006B001</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>241F0009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>文库构建</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>HSTQD2024011600003</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>GSD240116007B001</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>241F0010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>文库构建</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>HSTQD2024011600003</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>GSD240116008B001</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>241F0011</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>文库构建</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>HSTQD2024011600003</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>GSD240116009B001</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>241F0012</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>文库构建</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>HSTQD2024011600003</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>GSD240116010B001</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>241F0013</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>文库构建</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>HSTQD2024011600003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>GSD240116011B001</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>241F0014</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>文库构建</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>HSTQD2024011600003</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>GSD240116012B001</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>241F0015</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>文库构建</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>HSTQD2024011600003</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>GSD240116013B001</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>241F0016</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>文库构建</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>HSTQD2024011600003</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>GSD240116014B001</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>241F0017</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>文库构建</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>HSTQD2024011600003</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>GSD240116015B001</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>241F0018</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>文库构建</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>HSTQD2024011600003</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>GSD240116016B001</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>241F0019</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>文库构建</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>HSTQD2024011600003</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>GSD240116017B001</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>241F0020</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>文库构建</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>HSTQD2024011600003</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>GSD240116018B001</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>241F0021</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>文库构建</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>HSTQD2024011600003</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>GSD240116019B001</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>241F0022</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>文库构建</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>HSTQD2024011600003</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>GSD240116020B001</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>241F0023</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>文库构建</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>HSTQD2024011600003</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>GSD240116021B001</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>241F0024</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>文库构建</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>HSTQD2024011600003</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>GSD240116022B001</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>241F0025</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>文库构建</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>HSTQD2024011600003</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>GSD240116023B001</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>241F0026</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>文库构建</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>HSTQD2024011600003</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>GSD240116024B001</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>241F0027</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>文库构建</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>HSTQD2024011600003</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>GSD240116041B001</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>241F0043</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>文库构建</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>HSTQD2024011600003</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>GSD240116035P001</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>241F0038</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>文库构建</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>MPCRD2024011600001</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>GSD240116036P001</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>241F0039</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>文库构建</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>MPCRD2024011600001</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>GSD240116037P001</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>241F0040</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>文库构建</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>MPCRD2024011600001</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>GSD240116038P001</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>241F0041</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>文库构建</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>MPCRD2024011600001</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>GSD240116039P001</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>241F0042</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>文库构建</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>MPCRD2024011600001</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/excel_doc/wkgj_id_lims.xlsx
+++ b/data/excel_doc/wkgj_id_lims.xlsx
@@ -1,34 +1,70 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\工作文件夹\自动化文档\正式脚本\迪飞LIMS脚本\DFei_LIMS\data\excel_doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6492BC9-CAEA-4A62-BCEC-241D951A36AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>lims号</t>
+  </si>
+  <si>
+    <t>实验室号</t>
+  </si>
+  <si>
+    <t>当前节点</t>
+  </si>
+  <si>
+    <t>任务单号</t>
+  </si>
+  <si>
+    <t>GSD231219010P001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GSD231219005P001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,81 +82,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,42 +388,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="25.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>lims号</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>实验室号</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>当前节点</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>任务单号</t>
-        </is>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/excel_doc/wkgj_id_lims.xlsx
+++ b/data/excel_doc/wkgj_id_lims.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\工作文件夹\自动化文档\正式脚本\迪飞LIMS脚本\DFei_LIMS\data\excel_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6492BC9-CAEA-4A62-BCEC-241D951A36AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17D4486-605D-4268-AD4F-1C7600D1FFA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>lims号</t>
   </si>
@@ -34,19 +34,23 @@
     <t>任务单号</t>
   </si>
   <si>
-    <t>GSD231219010P001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GSD231219005P001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>GSD231214007B002</t>
+  </si>
+  <si>
+    <t>GSD231213005P001</t>
+  </si>
+  <si>
+    <t>GSD231213003P001</t>
+  </si>
+  <si>
+    <t>GSD231213002P001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,6 +64,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF606266"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -84,9 +94,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -389,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -414,14 +422,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/data/excel_doc/wkgj_id_lims.xlsx
+++ b/data/excel_doc/wkgj_id_lims.xlsx
@@ -1,80 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\工作文件夹\自动化文档\正式脚本\迪飞LIMS脚本\DFei_LIMS\data\excel_doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17D4486-605D-4268-AD4F-1C7600D1FFA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>lims号</t>
-  </si>
-  <si>
-    <t>实验室号</t>
-  </si>
-  <si>
-    <t>当前节点</t>
-  </si>
-  <si>
-    <t>任务单号</t>
-  </si>
-  <si>
-    <t>GSD231214007B002</t>
-  </si>
-  <si>
-    <t>GSD231213005P001</t>
-  </si>
-  <si>
-    <t>GSD231213003P001</t>
-  </si>
-  <si>
-    <t>GSD231213002P001</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF606266"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -92,23 +46,81 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -396,54 +408,416 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="25.125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>lims号</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>实验室号</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>当前节点</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>任务单号</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GSD240130064B001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>241V0062</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>文库构建</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>HSTQD2024013000004</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>GSD240130064B002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>241V0062</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>文库构建</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>HSTQD2024013000004</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>GSD240130065B001</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>241V0063</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>文库构建</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>HSTQD2024013000004</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>GSD240130066B001</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>241V0064</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>文库构建</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>HSTQD2024013000004</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>GSD240130067B001</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>241V0065</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>文库构建</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>HSTQD2024013000004</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>GSD240130068B001</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>241V0066</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>文库构建</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>HSTQD2024013000004</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>GSD240130069B001</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>241V0067</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>文库构建</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>HSTQD2024013000004</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>GSD240130070B001</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>241V0068</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>文库构建</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>HSTQD2024013000004</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>GSD240130071B001</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>241V0069</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>文库构建</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>HSTQD2024013000004</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>GSD240130072B001</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>241V0070</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>文库构建</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>HSTQD2024013000004</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>GSD240130073B001</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>241V0071</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>文库构建</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>HSTQD2024013000004</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>GSD240130084B001</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>241V0082</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>文库构建</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>HSTQD2024013000004</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>GSD240130079P001</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>241V0077</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>文库构建</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>MPCRD2024013000002</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>GSD240130080P001</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>241V0078</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>文库构建</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>MPCRD2024013000002</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>GSD240130081P001</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>241V0079</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>文库构建</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>MPCRD2024013000002</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>GSD240130082P001</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>241V0080</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>文库构建</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>MPCRD2024013000002</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>GSD240130083P001</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>241V0081</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>文库构建</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>MPCRD2024013000002</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>